--- a/data/trans_dic/P69$dolorMuscular-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P69$dolorMuscular-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.4734920487819245</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4601706271268272</v>
+        <v>0.460170627126827</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2386236181591163</v>
+        <v>0.2343151354601077</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3017595080990169</v>
+        <v>0.3105403841933561</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2702235481064651</v>
+        <v>0.2830739786846896</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3092109894538397</v>
+        <v>0.3158924130624772</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1914560160149362</v>
+        <v>0.2139654200247735</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2250455227654034</v>
+        <v>0.231199477442273</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3613380503355539</v>
+        <v>0.3561569632470195</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3530796981347181</v>
+        <v>0.3551142605711245</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2606298358961109</v>
+        <v>0.2703758622615723</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3069012898863027</v>
+        <v>0.2926908498967825</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3522425228925942</v>
+        <v>0.3643106012222779</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.373581598565078</v>
+        <v>0.3712391064086132</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4715009119419636</v>
+        <v>0.4717134116223776</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5771247291151957</v>
+        <v>0.5746075919252028</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5904010864528657</v>
+        <v>0.5993335137310938</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6145380700815862</v>
+        <v>0.6114361277601407</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4748559469321332</v>
+        <v>0.4941498546839191</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5504427226309069</v>
+        <v>0.5257725934800179</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6598065938784381</v>
+        <v>0.6705605448791141</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5747034711584992</v>
+        <v>0.5774613650424072</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4404565040420379</v>
+        <v>0.4484185866263973</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5117550549465891</v>
+        <v>0.5135023018597507</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5749713992153581</v>
+        <v>0.5851186816550062</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5530116322823906</v>
+        <v>0.5584422546258065</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.6321550748104957</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4780047308578392</v>
+        <v>0.4780047308578393</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3343246208484475</v>
@@ -833,7 +833,7 @@
         <v>0.5881173806165623</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4371177188372171</v>
+        <v>0.437117718837217</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1092473487572938</v>
+        <v>0.1108293845325712</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3351319887069354</v>
+        <v>0.3188013745459782</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3499046961484223</v>
+        <v>0.3172464520991092</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2561799590870124</v>
+        <v>0.2687445610377244</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3132808976687382</v>
+        <v>0.3086212497640987</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07911997731234531</v>
+        <v>0.07741266924364319</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4364330843068244</v>
+        <v>0.4228415328303697</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3480285380962984</v>
+        <v>0.3434818544452681</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.241056260232422</v>
+        <v>0.2386326426689201</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.253207219043933</v>
+        <v>0.2515169354044328</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4557337762628597</v>
+        <v>0.434931605915909</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3470442616795624</v>
+        <v>0.3435875166842452</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3888961583405205</v>
+        <v>0.3788850064752366</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6802880548661795</v>
+        <v>0.6789232187487523</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7428068690084472</v>
+        <v>0.7070461789828373</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5445728143986658</v>
+        <v>0.5529178774710493</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6172413221534532</v>
+        <v>0.6125693862393105</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4327894663503957</v>
+        <v>0.4692040793515153</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7970031474439009</v>
+        <v>0.8058569142940812</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6042861331265177</v>
+        <v>0.6203164526150249</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4461969377099104</v>
+        <v>0.4511177929605523</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5162663741146561</v>
+        <v>0.5145584710866977</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7149117433044077</v>
+        <v>0.7103423868167735</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5375238404616434</v>
+        <v>0.5383454833193194</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.5830398040484186</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6494749417768049</v>
+        <v>0.649474941776805</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.553655860943718</v>
@@ -957,7 +957,7 @@
         <v>0.6974586333925363</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.7901700521569986</v>
+        <v>0.7901700521569991</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.633247563547876</v>
@@ -969,7 +969,7 @@
         <v>0.5975363841843513</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.6846000930039039</v>
+        <v>0.6846000930039038</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5459331990136388</v>
+        <v>0.542714007669606</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4154834204943086</v>
+        <v>0.4147354702334418</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4646029224653278</v>
+        <v>0.4524994973392971</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5212725554930746</v>
+        <v>0.5062806133659133</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2967494720078209</v>
+        <v>0.2741865017692497</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4157133944489432</v>
+        <v>0.4201236871229518</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3605162641969812</v>
+        <v>0.3466692882844809</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5847084838603265</v>
+        <v>0.6118418257090822</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.534422035733084</v>
+        <v>0.5452768083067433</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4558419426973948</v>
+        <v>0.4459338596441927</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4741000927983391</v>
+        <v>0.4706743127744229</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.581574233102133</v>
+        <v>0.5684308125772225</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7399200764850864</v>
+        <v>0.7363905637950492</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6442265138422336</v>
+        <v>0.6388922982925785</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7109691450832415</v>
+        <v>0.6982213932103382</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7642847207584434</v>
+        <v>0.777828025143288</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8171311100697731</v>
+        <v>0.8105842419611308</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7591244834958977</v>
+        <v>0.7646329378211751</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9091299224547251</v>
+        <v>0.9067816366516487</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9129778259041076</v>
+        <v>0.9238821869296416</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7168642503025309</v>
+        <v>0.7227615838638642</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.639757162083329</v>
+        <v>0.6396935025009759</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7086282831423594</v>
+        <v>0.7049290028733564</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7862846082462218</v>
+        <v>0.7757098855407348</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.6476346197517379</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6905775324034746</v>
+        <v>0.6905775324034745</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5757413724183591</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5128367838714225</v>
+        <v>0.5087137401491078</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5330113039826779</v>
+        <v>0.534029376050475</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5631690141157973</v>
+        <v>0.5579709547951719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6055007177694751</v>
+        <v>0.6055168152573496</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4409687198450464</v>
+        <v>0.4383090637458215</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4340488426306118</v>
+        <v>0.4389529470733915</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6012016646571886</v>
+        <v>0.6136936482516544</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5243401153124286</v>
+        <v>0.5237493339086819</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.514655495199322</v>
+        <v>0.5163831616627763</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5298122105237754</v>
+        <v>0.5321566394208674</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.6071718173715578</v>
+        <v>0.6102374109488716</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5907229859430319</v>
+        <v>0.5921065865682694</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6570521066730655</v>
+        <v>0.6504335176571209</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7111822573713829</v>
+        <v>0.7133263414650528</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7285100131022906</v>
+        <v>0.7285118821996646</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7728456535949086</v>
+        <v>0.7659239981313006</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7006333011095893</v>
+        <v>0.7162031735687906</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.680485478707338</v>
+        <v>0.6808050815522807</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8141922589141102</v>
+        <v>0.8144720444142631</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6877886476572388</v>
+        <v>0.682758863883968</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6442251118040863</v>
+        <v>0.6423453861680275</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6739975507473885</v>
+        <v>0.6721097673140918</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7426077973046508</v>
+        <v>0.7361649723582577</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7084075640309817</v>
+        <v>0.7141794687601738</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3660569343159534</v>
+        <v>0.378683533162284</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4047061759103392</v>
+        <v>0.4011680959509063</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5222801755115317</v>
+        <v>0.5263020436210035</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6702608512984579</v>
+        <v>0.6903242396767514</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5081688600408666</v>
+        <v>0.4974774877266429</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5448512092774025</v>
+        <v>0.5315247823497554</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6280744370773728</v>
+        <v>0.6135464723966064</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6388728534962774</v>
+        <v>0.6438054655704289</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4756206190456941</v>
+        <v>0.4685906597015503</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5265826608977554</v>
+        <v>0.51819440602153</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6184943542436652</v>
+        <v>0.5996381721558094</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6909644964766225</v>
+        <v>0.6914288171186613</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6200270447676942</v>
+        <v>0.6410751944624583</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7283021661326941</v>
+        <v>0.7221146102683771</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7663483268684669</v>
+        <v>0.765316383404817</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.899641629225121</v>
+        <v>0.9014518888391353</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7453026542249868</v>
+        <v>0.7410918167156608</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8397384270060222</v>
+        <v>0.8361626017164721</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.872111637852767</v>
+        <v>0.8690208667688512</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.798215643242092</v>
+        <v>0.7932872235122597</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6584631847552062</v>
+        <v>0.6523210642357827</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7411973981559729</v>
+        <v>0.7409342559288848</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7775866229283134</v>
+        <v>0.7711756167743444</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.8160560705400974</v>
+        <v>0.8211454651946781</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4716793852738177</v>
+        <v>0.4766290170674969</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4836157178077435</v>
+        <v>0.4937978344175108</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5443497166541906</v>
+        <v>0.5416053855701742</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5779583043096858</v>
+        <v>0.5801276829931096</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4503939174513055</v>
+        <v>0.448343887092658</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4418773661470411</v>
+        <v>0.4408228845376214</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.6081218770139846</v>
+        <v>0.6054033415427434</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5607066513754583</v>
+        <v>0.5623176194403061</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4771347410317658</v>
+        <v>0.4819339088249364</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4949134687714661</v>
+        <v>0.4929011479146192</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5816933674115641</v>
+        <v>0.5860636397067324</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.582599910466692</v>
+        <v>0.5829817985397826</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5700461878482095</v>
+        <v>0.5670018662808933</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6061499291716352</v>
+        <v>0.6046460738476124</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6541390439472835</v>
+        <v>0.6495173072441645</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6898521422294938</v>
+        <v>0.6891720731897039</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5819819474799803</v>
+        <v>0.5807251949632133</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5844516659778844</v>
+        <v>0.5913463157459647</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7354085112642531</v>
+        <v>0.7399347560053867</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6594609708369638</v>
+        <v>0.657170250213296</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5557714096120838</v>
+        <v>0.5589325105985754</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.578857737910898</v>
+        <v>0.5747550059606914</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.6671634253962926</v>
+        <v>0.6689268647090703</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6575851947896969</v>
+        <v>0.6570662961331514</v>
       </c>
     </row>
     <row r="22">
@@ -1737,40 +1737,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15530</v>
+        <v>15250</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16735</v>
+        <v>17222</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12676</v>
+        <v>13279</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15820</v>
+        <v>16162</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8931</v>
+        <v>9981</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>9385</v>
+        <v>9641</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>16598</v>
+        <v>16360</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>21588</v>
+        <v>21712</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>29121</v>
+        <v>30210</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>29819</v>
+        <v>28438</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>32704</v>
+        <v>33824</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>41955</v>
+        <v>41692</v>
       </c>
     </row>
     <row r="7">
@@ -1781,40 +1781,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30687</v>
+        <v>30701</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>32006</v>
+        <v>31867</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27696</v>
+        <v>28115</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>31442</v>
+        <v>31284</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22152</v>
+        <v>23052</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>22955</v>
+        <v>21926</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>30308</v>
+        <v>30802</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>35139</v>
+        <v>35307</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>49214</v>
+        <v>50103</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>49722</v>
+        <v>49892</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>53383</v>
+        <v>54325</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>62107</v>
+        <v>62716</v>
       </c>
     </row>
     <row r="8">
@@ -1917,40 +1917,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4627</v>
+        <v>4694</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11871</v>
+        <v>11292</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>10580</v>
+        <v>9592</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>13336</v>
+        <v>13991</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>13037</v>
+        <v>12844</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2106</v>
+        <v>2060</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>12829</v>
+        <v>12429</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>15819</v>
+        <v>15613</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>20241</v>
+        <v>20038</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>15708</v>
+        <v>15603</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>27176</v>
+        <v>25935</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>33841</v>
+        <v>33504</v>
       </c>
     </row>
     <row r="11">
@@ -1961,40 +1961,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16472</v>
+        <v>16048</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24096</v>
+        <v>24048</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22460</v>
+        <v>21378</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>28350</v>
+        <v>28784</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>25687</v>
+        <v>25493</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>11518</v>
+        <v>12487</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23427</v>
+        <v>23687</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>27467</v>
+        <v>28196</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>37467</v>
+        <v>37880</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>32027</v>
+        <v>31921</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>42631</v>
+        <v>42358</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>52416</v>
+        <v>52496</v>
       </c>
     </row>
     <row r="12">
@@ -2097,40 +2097,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>54610</v>
+        <v>54288</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>32977</v>
+        <v>32918</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>30643</v>
+        <v>29845</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>32050</v>
+        <v>31129</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4833</v>
+        <v>4466</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14019</v>
+        <v>14167</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3450</v>
+        <v>3317</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11961</v>
+        <v>12516</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>62162</v>
+        <v>63424</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>51553</v>
+        <v>50432</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>35806</v>
+        <v>35548</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>47655</v>
+        <v>46578</v>
       </c>
     </row>
     <row r="15">
@@ -2141,40 +2141,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>74014</v>
+        <v>73661</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>51133</v>
+        <v>50710</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>46893</v>
+        <v>46052</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>46992</v>
+        <v>47825</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13309</v>
+        <v>13202</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>25599</v>
+        <v>25785</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8699</v>
+        <v>8677</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>18677</v>
+        <v>18900</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>83383</v>
+        <v>84069</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>72352</v>
+        <v>72345</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>53519</v>
+        <v>53240</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>64430</v>
+        <v>63563</v>
       </c>
     </row>
     <row r="16">
@@ -2277,40 +2277,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>102571</v>
+        <v>101746</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>61403</v>
+        <v>61520</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>77080</v>
+        <v>76369</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>91846</v>
+        <v>91848</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>22025</v>
+        <v>21892</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>29496</v>
+        <v>29829</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>50547</v>
+        <v>51598</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>59353</v>
+        <v>59286</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>128640</v>
+        <v>129072</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>97037</v>
+        <v>97467</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>134152</v>
+        <v>134830</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>156472</v>
+        <v>156839</v>
       </c>
     </row>
     <row r="19">
@@ -2321,40 +2321,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>131415</v>
+        <v>130091</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>81928</v>
+        <v>82175</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>99710</v>
+        <v>99711</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>117230</v>
+        <v>116180</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>34994</v>
+        <v>35771</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>46242</v>
+        <v>46264</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>68455</v>
+        <v>68478</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>77855</v>
+        <v>77286</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>161027</v>
+        <v>160557</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>123445</v>
+        <v>123100</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>164076</v>
+        <v>162653</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>187645</v>
+        <v>189174</v>
       </c>
     </row>
     <row r="20">
@@ -2457,40 +2457,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23431</v>
+        <v>24239</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>16190</v>
+        <v>16048</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>35593</v>
+        <v>35867</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>43532</v>
+        <v>44835</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>33348</v>
+        <v>32646</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>23793</v>
+        <v>23211</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>29723</v>
+        <v>29035</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>63959</v>
+        <v>64453</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>61656</v>
+        <v>60744</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>44060</v>
+        <v>43358</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>71419</v>
+        <v>69242</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>114051</v>
+        <v>114127</v>
       </c>
     </row>
     <row r="23">
@@ -2501,40 +2501,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>39687</v>
+        <v>41035</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>29135</v>
+        <v>28887</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>52226</v>
+        <v>52156</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>58430</v>
+        <v>58547</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>48909</v>
+        <v>48633</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>36670</v>
+        <v>36514</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>41272</v>
+        <v>41126</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>79912</v>
+        <v>79418</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>85358</v>
+        <v>84562</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>62017</v>
+        <v>61995</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>89790</v>
+        <v>89050</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>134698</v>
+        <v>135538</v>
       </c>
     </row>
     <row r="24">
@@ -2637,40 +2637,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>222389</v>
+        <v>224723</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>157395</v>
+        <v>160709</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>189500</v>
+        <v>188545</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>220400</v>
+        <v>221227</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>99141</v>
+        <v>98690</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>94412</v>
+        <v>94187</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>131536</v>
+        <v>130948</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>190844</v>
+        <v>191392</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>329989</v>
+        <v>333308</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>266816</v>
+        <v>265731</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>328319</v>
+        <v>330785</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>420465</v>
+        <v>420740</v>
       </c>
     </row>
     <row r="27">
@@ -2681,40 +2681,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>268768</v>
+        <v>267332</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>197275</v>
+        <v>196785</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>227720</v>
+        <v>226111</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>263070</v>
+        <v>262810</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>128106</v>
+        <v>127830</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>124875</v>
+        <v>126348</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>159067</v>
+        <v>160046</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>224456</v>
+        <v>223676</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>384374</v>
+        <v>386561</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>312071</v>
+        <v>309860</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>376560</v>
+        <v>377555</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>474582</v>
+        <v>474207</v>
       </c>
     </row>
     <row r="28">
